--- a/public/printer-sample-upload.xlsx
+++ b/public/printer-sample-upload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linh/staff-portal-web/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F7BCBC-C022-3744-B499-F04D8A12F60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C600829D-9172-2849-BE58-D705DC93E080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{BA0EB9C3-12C4-9C45-9C5E-DF8F105EEFE8}"/>
+    <workbookView xWindow="1120" yWindow="5020" windowWidth="28800" windowHeight="16260" xr2:uid="{BA0EB9C3-12C4-9C45-9C5E-DF8F105EEFE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Dell</t>
   </si>
@@ -101,10 +101,13 @@
     <t>Máy Photocopier</t>
   </si>
   <si>
-    <t>Máy đa chức năng</t>
-  </si>
-  <si>
     <t>10.1.4.2</t>
+  </si>
+  <si>
+    <t>Tên Phòng (Room Name)</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -513,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAED9B37-DC91-F646-B2F5-9F1FFDAF461F}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -526,12 +529,12 @@
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" customWidth="1"/>
-    <col min="9" max="9" width="30.5" customWidth="1"/>
+    <col min="7" max="8" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" customWidth="1"/>
+    <col min="10" max="10" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -554,13 +557,16 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -571,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1">
         <v>1234566</v>
@@ -582,14 +588,17 @@
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -609,14 +618,17 @@
       <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -636,14 +648,17 @@
       <c r="G4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -663,18 +678,19 @@
       <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>

--- a/public/printer-sample-upload.xlsx
+++ b/public/printer-sample-upload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linh/staff-portal-web/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C600829D-9172-2849-BE58-D705DC93E080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CC51B1-5E3D-7D48-A51C-95346EB306D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="5020" windowWidth="28800" windowHeight="16260" xr2:uid="{BA0EB9C3-12C4-9C45-9C5E-DF8F105EEFE8}"/>
+    <workbookView xWindow="3000" yWindow="4380" windowWidth="28800" windowHeight="16260" xr2:uid="{BA0EB9C3-12C4-9C45-9C5E-DF8F105EEFE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,9 +83,6 @@
     <t>Máy in HP 501</t>
   </si>
   <si>
-    <t>IP</t>
-  </si>
-  <si>
     <t>Loại (type)</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Địa Chỉ IP (ip)</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -539,13 +539,13 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
@@ -571,13 +571,13 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1">
         <v>1234566</v>
@@ -589,7 +589,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>12</v>
@@ -603,7 +603,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -619,7 +619,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>12</v>
@@ -633,7 +633,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -649,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>12</v>
@@ -663,7 +663,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>12</v>
